--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cd2-Cd48.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cd2-Cd48.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Cd2</t>
+  </si>
+  <si>
+    <t>Cd48</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Cd2</t>
-  </si>
-  <si>
-    <t>Cd48</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
+    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +534,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.022386</v>
+      </c>
+      <c r="H2">
+        <v>0.067158</v>
+      </c>
+      <c r="I2">
+        <v>0.03053433032072914</v>
+      </c>
+      <c r="J2">
+        <v>0.03053433032072914</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.5</v>
       </c>
-      <c r="G2">
-        <v>0.1079395</v>
-      </c>
-      <c r="H2">
-        <v>0.215879</v>
-      </c>
-      <c r="I2">
-        <v>0.08243590548110175</v>
-      </c>
-      <c r="J2">
-        <v>0.05651009047991132</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
       <c r="M2">
-        <v>109.3871713333333</v>
+        <v>0.098638</v>
       </c>
       <c r="N2">
-        <v>328.161514</v>
+        <v>0.197276</v>
       </c>
       <c r="O2">
-        <v>0.4931202135986874</v>
+        <v>0.000395920136609078</v>
       </c>
       <c r="P2">
-        <v>0.4931202135986874</v>
+        <v>0.0002640598268365538</v>
       </c>
       <c r="Q2">
-        <v>11.80719658013433</v>
+        <v>0.002208110268</v>
       </c>
       <c r="R2">
-        <v>70.843179480806</v>
+        <v>0.013248661608</v>
       </c>
       <c r="S2">
-        <v>0.0406508113190421</v>
+        <v>1.208915623184979E-05</v>
       </c>
       <c r="T2">
-        <v>0.02786626788793502</v>
+        <v>8.06288997706187E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,25 +596,25 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1079395</v>
+        <v>0.022386</v>
       </c>
       <c r="H3">
-        <v>0.215879</v>
+        <v>0.067158</v>
       </c>
       <c r="I3">
-        <v>0.08243590548110175</v>
+        <v>0.03053433032072914</v>
       </c>
       <c r="J3">
-        <v>0.05651009047991132</v>
+        <v>0.03053433032072914</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7923896666666667</v>
+        <v>113.924512</v>
       </c>
       <c r="N3">
-        <v>2.377169</v>
+        <v>341.773536</v>
       </c>
       <c r="O3">
-        <v>0.003572113227878934</v>
+        <v>0.4572782127999608</v>
       </c>
       <c r="P3">
-        <v>0.003572113227878934</v>
+        <v>0.4574741009219402</v>
       </c>
       <c r="Q3">
-        <v>0.08553014442516665</v>
+        <v>2.550314125632</v>
       </c>
       <c r="R3">
-        <v>0.5131808665509999</v>
+        <v>22.952827130688</v>
       </c>
       <c r="S3">
-        <v>0.0002944703884212211</v>
+        <v>0.01396268399810667</v>
       </c>
       <c r="T3">
-        <v>0.0002018604417119266</v>
+        <v>0.0139686653107291</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +658,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.022386</v>
+      </c>
+      <c r="H4">
+        <v>0.067158</v>
+      </c>
+      <c r="I4">
+        <v>0.03053433032072914</v>
+      </c>
+      <c r="J4">
+        <v>0.03053433032072914</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>0.5</v>
       </c>
-      <c r="G4">
-        <v>0.1079395</v>
-      </c>
-      <c r="H4">
-        <v>0.215879</v>
-      </c>
-      <c r="I4">
-        <v>0.08243590548110175</v>
-      </c>
-      <c r="J4">
-        <v>0.05651009047991132</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>111.6470206666667</v>
+        <v>0.2213985</v>
       </c>
       <c r="N4">
-        <v>334.941062</v>
+        <v>0.442797</v>
       </c>
       <c r="O4">
-        <v>0.5033076731734337</v>
+        <v>0.0008886648590304441</v>
       </c>
       <c r="P4">
-        <v>0.5033076731734337</v>
+        <v>0.0005926970292572107</v>
       </c>
       <c r="Q4">
-        <v>12.05112358724967</v>
+        <v>0.004956226821</v>
       </c>
       <c r="R4">
-        <v>72.30674152349799</v>
+        <v>0.029737360926</v>
       </c>
       <c r="S4">
-        <v>0.04149062377363843</v>
+        <v>2.713478635005977E-05</v>
       </c>
       <c r="T4">
-        <v>0.02844196215026438</v>
+        <v>1.809760687145453E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -729,13 +732,13 @@
         <v>0.022386</v>
       </c>
       <c r="H5">
-        <v>0.06715800000000001</v>
+        <v>0.067158</v>
       </c>
       <c r="I5">
-        <v>0.01709670862010611</v>
+        <v>0.03053433032072914</v>
       </c>
       <c r="J5">
-        <v>0.01757977689562155</v>
+        <v>0.03053433032072914</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>109.3871713333333</v>
+        <v>36.51204566666667</v>
       </c>
       <c r="N5">
-        <v>328.161514</v>
+        <v>109.536137</v>
       </c>
       <c r="O5">
-        <v>0.4931202135986874</v>
+        <v>0.1465546149376869</v>
       </c>
       <c r="P5">
-        <v>0.4931202135986874</v>
+        <v>0.1466173957732569</v>
       </c>
       <c r="Q5">
-        <v>2.448741217468001</v>
+        <v>0.817358654294</v>
       </c>
       <c r="R5">
-        <v>22.03867095721201</v>
+        <v>7.356227888645999</v>
       </c>
       <c r="S5">
-        <v>0.008430732606581247</v>
+        <v>0.004474947022534596</v>
       </c>
       <c r="T5">
-        <v>0.008668943337786169</v>
+        <v>0.004476863993305703</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,7 +782,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,13 +794,13 @@
         <v>0.022386</v>
       </c>
       <c r="H6">
-        <v>0.06715800000000001</v>
+        <v>0.067158</v>
       </c>
       <c r="I6">
-        <v>0.01709670862010611</v>
+        <v>0.03053433032072914</v>
       </c>
       <c r="J6">
-        <v>0.01757977689562155</v>
+        <v>0.03053433032072914</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7923896666666667</v>
+        <v>98.379509</v>
       </c>
       <c r="N6">
-        <v>2.377169</v>
+        <v>295.138527</v>
       </c>
       <c r="O6">
-        <v>0.003572113227878934</v>
+        <v>0.3948825872667128</v>
       </c>
       <c r="P6">
-        <v>0.003572113227878934</v>
+        <v>0.3950517464487092</v>
       </c>
       <c r="Q6">
-        <v>0.017738435078</v>
+        <v>2.202323688474</v>
       </c>
       <c r="R6">
-        <v>0.159645915702</v>
+        <v>19.820913196266</v>
       </c>
       <c r="S6">
-        <v>6.107137901507285E-05</v>
+        <v>0.01205747535750596</v>
       </c>
       <c r="T6">
-        <v>6.279695359201021E-05</v>
+        <v>0.01206264051984582</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +844,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.022386</v>
+        <v>0.4643576666666667</v>
       </c>
       <c r="H7">
-        <v>0.06715800000000001</v>
+        <v>1.393073</v>
       </c>
       <c r="I7">
-        <v>0.01709670862010611</v>
+        <v>0.6333802546664449</v>
       </c>
       <c r="J7">
-        <v>0.01757977689562155</v>
+        <v>0.6333802546664449</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>111.6470206666667</v>
+        <v>0.098638</v>
       </c>
       <c r="N7">
-        <v>334.941062</v>
+        <v>0.197276</v>
       </c>
       <c r="O7">
-        <v>0.5033076731734337</v>
+        <v>0.000395920136609078</v>
       </c>
       <c r="P7">
-        <v>0.5033076731734337</v>
+        <v>0.0002640598268365538</v>
       </c>
       <c r="Q7">
-        <v>2.499330204644</v>
+        <v>0.04580331152466667</v>
       </c>
       <c r="R7">
-        <v>22.493971841796</v>
+        <v>0.274819869148</v>
       </c>
       <c r="S7">
-        <v>0.008604904634509795</v>
+        <v>0.0002507679969530315</v>
       </c>
       <c r="T7">
-        <v>0.008848036604243372</v>
+        <v>0.0001672502803689138</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -903,25 +906,25 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5495453333333332</v>
+        <v>0.4643576666666667</v>
       </c>
       <c r="H8">
-        <v>1.648636</v>
+        <v>1.393073</v>
       </c>
       <c r="I8">
-        <v>0.4197005466603719</v>
+        <v>0.6333802546664449</v>
       </c>
       <c r="J8">
-        <v>0.4315592045934948</v>
+        <v>0.6333802546664449</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,33 +933,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>109.3871713333333</v>
+        <v>113.924512</v>
       </c>
       <c r="N8">
-        <v>328.161514</v>
+        <v>341.773536</v>
       </c>
       <c r="O8">
-        <v>0.4931202135986874</v>
+        <v>0.4572782127999608</v>
       </c>
       <c r="P8">
-        <v>0.4931202135986874</v>
+        <v>0.4574741009219402</v>
       </c>
       <c r="Q8">
-        <v>60.1132095327671</v>
+        <v>52.90172056845866</v>
       </c>
       <c r="R8">
-        <v>541.0188857949039</v>
+        <v>476.115485116128</v>
       </c>
       <c r="S8">
-        <v>0.2069628232166484</v>
+        <v>0.2896309908766559</v>
       </c>
       <c r="T8">
-        <v>0.2128105671496238</v>
+        <v>0.2897550625452414</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,87 +968,87 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5495453333333332</v>
+        <v>0.4643576666666667</v>
       </c>
       <c r="H9">
-        <v>1.648636</v>
+        <v>1.393073</v>
       </c>
       <c r="I9">
-        <v>0.4197005466603719</v>
+        <v>0.6333802546664449</v>
       </c>
       <c r="J9">
-        <v>0.4315592045934948</v>
+        <v>0.6333802546664449</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>0.7923896666666667</v>
+        <v>0.2213985</v>
       </c>
       <c r="N9">
-        <v>2.377169</v>
+        <v>0.442797</v>
       </c>
       <c r="O9">
-        <v>0.003572113227878934</v>
+        <v>0.0008886648590304441</v>
       </c>
       <c r="P9">
-        <v>0.003572113227878934</v>
+        <v>0.0005926970292572107</v>
       </c>
       <c r="Q9">
-        <v>0.4354540434982221</v>
+        <v>0.1028080908635</v>
       </c>
       <c r="R9">
-        <v>3.919086391483999</v>
+        <v>0.616848545181</v>
       </c>
       <c r="S9">
-        <v>0.001499217874473534</v>
+        <v>0.000562862774725823</v>
       </c>
       <c r="T9">
-        <v>0.001541578343341334</v>
+        <v>0.0003754025953309774</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5495453333333332</v>
+        <v>0.4643576666666667</v>
       </c>
       <c r="H10">
-        <v>1.648636</v>
+        <v>1.393073</v>
       </c>
       <c r="I10">
-        <v>0.4197005466603719</v>
+        <v>0.6333802546664449</v>
       </c>
       <c r="J10">
-        <v>0.4315592045934948</v>
+        <v>0.6333802546664449</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,42 +1057,42 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>111.6470206666667</v>
+        <v>36.51204566666667</v>
       </c>
       <c r="N10">
-        <v>334.941062</v>
+        <v>109.536137</v>
       </c>
       <c r="O10">
-        <v>0.5033076731734337</v>
+        <v>0.1465546149376869</v>
       </c>
       <c r="P10">
-        <v>0.5033076731734337</v>
+        <v>0.1466173957732569</v>
       </c>
       <c r="Q10">
-        <v>61.35509918793687</v>
+        <v>16.95464833100011</v>
       </c>
       <c r="R10">
-        <v>552.1958926914319</v>
+        <v>152.591834979001</v>
       </c>
       <c r="S10">
-        <v>0.2112385055692499</v>
+        <v>0.09282479933177487</v>
       </c>
       <c r="T10">
-        <v>0.2172070591005297</v>
+        <v>0.0928645634733964</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.629504</v>
+        <v>0.4643576666666667</v>
       </c>
       <c r="H11">
-        <v>1.888512</v>
+        <v>1.393073</v>
       </c>
       <c r="I11">
-        <v>0.4807668392384203</v>
+        <v>0.6333802546664449</v>
       </c>
       <c r="J11">
-        <v>0.4943509280309724</v>
+        <v>0.6333802546664449</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,33 +1119,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>109.3871713333333</v>
+        <v>98.379509</v>
       </c>
       <c r="N11">
-        <v>328.161514</v>
+        <v>295.138527</v>
       </c>
       <c r="O11">
-        <v>0.4931202135986874</v>
+        <v>0.3948825872667128</v>
       </c>
       <c r="P11">
-        <v>0.4931202135986874</v>
+        <v>0.3950517464487092</v>
       </c>
       <c r="Q11">
-        <v>68.85966190301866</v>
+        <v>45.68327924705233</v>
       </c>
       <c r="R11">
-        <v>619.736957127168</v>
+        <v>411.149513223471</v>
       </c>
       <c r="S11">
-        <v>0.2370758464564157</v>
+        <v>0.2501108336863352</v>
       </c>
       <c r="T11">
-        <v>0.2437744352233424</v>
+        <v>0.2502179757721072</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1154,57 +1157,57 @@
         <v>26</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.629504</v>
+        <v>0.06229333333333333</v>
       </c>
       <c r="H12">
-        <v>1.888512</v>
+        <v>0.18688</v>
       </c>
       <c r="I12">
-        <v>0.4807668392384203</v>
+        <v>0.08496762337082493</v>
       </c>
       <c r="J12">
-        <v>0.4943509280309724</v>
+        <v>0.08496762337082493</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.7923896666666667</v>
+        <v>0.098638</v>
       </c>
       <c r="N12">
-        <v>2.377169</v>
+        <v>0.197276</v>
       </c>
       <c r="O12">
-        <v>0.003572113227878934</v>
+        <v>0.000395920136609078</v>
       </c>
       <c r="P12">
-        <v>0.003572113227878934</v>
+        <v>0.0002640598268365538</v>
       </c>
       <c r="Q12">
-        <v>0.4988124647253333</v>
+        <v>0.006144489813333333</v>
       </c>
       <c r="R12">
-        <v>4.489312182528</v>
+        <v>0.03686693888</v>
       </c>
       <c r="S12">
-        <v>0.001717353585969106</v>
+        <v>3.36403930523257E-05</v>
       </c>
       <c r="T12">
-        <v>0.001765877489233663</v>
+        <v>2.243653591401355E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,25 +1216,25 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.629504</v>
+        <v>0.06229333333333333</v>
       </c>
       <c r="H13">
-        <v>1.888512</v>
+        <v>0.18688</v>
       </c>
       <c r="I13">
-        <v>0.4807668392384203</v>
+        <v>0.08496762337082493</v>
       </c>
       <c r="J13">
-        <v>0.4943509280309724</v>
+        <v>0.08496762337082493</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1243,524 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>111.6470206666667</v>
+        <v>113.924512</v>
       </c>
       <c r="N13">
-        <v>334.941062</v>
+        <v>341.773536</v>
       </c>
       <c r="O13">
-        <v>0.5033076731734337</v>
+        <v>0.4572782127999608</v>
       </c>
       <c r="P13">
-        <v>0.5033076731734337</v>
+        <v>0.4574741009219402</v>
       </c>
       <c r="Q13">
-        <v>70.28224609774932</v>
+        <v>7.096737600853332</v>
       </c>
       <c r="R13">
-        <v>632.540214879744</v>
+        <v>63.87063840767999</v>
       </c>
       <c r="S13">
-        <v>0.2419736391960356</v>
+        <v>0.03885384296087101</v>
       </c>
       <c r="T13">
-        <v>0.2488106153183963</v>
+        <v>0.03887048710904217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.06229333333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.18688</v>
+      </c>
+      <c r="I14">
+        <v>0.08496762337082493</v>
+      </c>
+      <c r="J14">
+        <v>0.08496762337082493</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.2213985</v>
+      </c>
+      <c r="N14">
+        <v>0.442797</v>
+      </c>
+      <c r="O14">
+        <v>0.0008886648590304441</v>
+      </c>
+      <c r="P14">
+        <v>0.0005926970292572107</v>
+      </c>
+      <c r="Q14">
+        <v>0.01379165056</v>
+      </c>
+      <c r="R14">
+        <v>0.08274990336</v>
+      </c>
+      <c r="S14">
+        <v>7.5507741044986E-05</v>
+      </c>
+      <c r="T14">
+        <v>5.036005795493348E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.06229333333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.18688</v>
+      </c>
+      <c r="I15">
+        <v>0.08496762337082493</v>
+      </c>
+      <c r="J15">
+        <v>0.08496762337082493</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>36.51204566666667</v>
+      </c>
+      <c r="N15">
+        <v>109.536137</v>
+      </c>
+      <c r="O15">
+        <v>0.1465546149376869</v>
+      </c>
+      <c r="P15">
+        <v>0.1466173957732569</v>
+      </c>
+      <c r="Q15">
+        <v>2.274457031395555</v>
+      </c>
+      <c r="R15">
+        <v>20.47011328256</v>
+      </c>
+      <c r="S15">
+        <v>0.01245239732528165</v>
+      </c>
+      <c r="T15">
+        <v>0.01245773166367327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.06229333333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.18688</v>
+      </c>
+      <c r="I16">
+        <v>0.08496762337082493</v>
+      </c>
+      <c r="J16">
+        <v>0.08496762337082493</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>98.379509</v>
+      </c>
+      <c r="N16">
+        <v>295.138527</v>
+      </c>
+      <c r="O16">
+        <v>0.3948825872667128</v>
+      </c>
+      <c r="P16">
+        <v>0.3950517464487092</v>
+      </c>
+      <c r="Q16">
+        <v>6.128387547306667</v>
+      </c>
+      <c r="R16">
+        <v>55.15548792576</v>
+      </c>
+      <c r="S16">
+        <v>0.03355223495057496</v>
+      </c>
+      <c r="T16">
+        <v>0.03356660800424054</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.184105</v>
+      </c>
+      <c r="H17">
+        <v>0.552315</v>
+      </c>
+      <c r="I17">
+        <v>0.2511177916420012</v>
+      </c>
+      <c r="J17">
+        <v>0.2511177916420012</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.098638</v>
+      </c>
+      <c r="N17">
+        <v>0.197276</v>
+      </c>
+      <c r="O17">
+        <v>0.000395920136609078</v>
+      </c>
+      <c r="P17">
+        <v>0.0002640598268365538</v>
+      </c>
+      <c r="Q17">
+        <v>0.01815974899</v>
+      </c>
+      <c r="R17">
+        <v>0.10895849394</v>
+      </c>
+      <c r="S17">
+        <v>9.942259037187107E-05</v>
+      </c>
+      <c r="T17">
+        <v>6.631012057656462E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.184105</v>
+      </c>
+      <c r="H18">
+        <v>0.552315</v>
+      </c>
+      <c r="I18">
+        <v>0.2511177916420012</v>
+      </c>
+      <c r="J18">
+        <v>0.2511177916420012</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>113.924512</v>
+      </c>
+      <c r="N18">
+        <v>341.773536</v>
+      </c>
+      <c r="O18">
+        <v>0.4572782127999608</v>
+      </c>
+      <c r="P18">
+        <v>0.4574741009219402</v>
+      </c>
+      <c r="Q18">
+        <v>20.97407228176</v>
+      </c>
+      <c r="R18">
+        <v>188.76665053584</v>
+      </c>
+      <c r="S18">
+        <v>0.1148306949643272</v>
+      </c>
+      <c r="T18">
+        <v>0.1148798859569276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.184105</v>
+      </c>
+      <c r="H19">
+        <v>0.552315</v>
+      </c>
+      <c r="I19">
+        <v>0.2511177916420012</v>
+      </c>
+      <c r="J19">
+        <v>0.2511177916420012</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.5</v>
+      </c>
+      <c r="M19">
+        <v>0.2213985</v>
+      </c>
+      <c r="N19">
+        <v>0.442797</v>
+      </c>
+      <c r="O19">
+        <v>0.0008886648590304441</v>
+      </c>
+      <c r="P19">
+        <v>0.0005926970292572107</v>
+      </c>
+      <c r="Q19">
+        <v>0.0407605708425</v>
+      </c>
+      <c r="R19">
+        <v>0.244563425055</v>
+      </c>
+      <c r="S19">
+        <v>0.0002231595569095754</v>
+      </c>
+      <c r="T19">
+        <v>0.0001488367690998453</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.184105</v>
+      </c>
+      <c r="H20">
+        <v>0.552315</v>
+      </c>
+      <c r="I20">
+        <v>0.2511177916420012</v>
+      </c>
+      <c r="J20">
+        <v>0.2511177916420012</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>36.51204566666667</v>
+      </c>
+      <c r="N20">
+        <v>109.536137</v>
+      </c>
+      <c r="O20">
+        <v>0.1465546149376869</v>
+      </c>
+      <c r="P20">
+        <v>0.1466173957732569</v>
+      </c>
+      <c r="Q20">
+        <v>6.722050167461666</v>
+      </c>
+      <c r="R20">
+        <v>60.498451507155</v>
+      </c>
+      <c r="S20">
+        <v>0.03680247125809576</v>
+      </c>
+      <c r="T20">
+        <v>0.03681823664288155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.184105</v>
+      </c>
+      <c r="H21">
+        <v>0.552315</v>
+      </c>
+      <c r="I21">
+        <v>0.2511177916420012</v>
+      </c>
+      <c r="J21">
+        <v>0.2511177916420012</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>98.379509</v>
+      </c>
+      <c r="N21">
+        <v>295.138527</v>
+      </c>
+      <c r="O21">
+        <v>0.3948825872667128</v>
+      </c>
+      <c r="P21">
+        <v>0.3950517464487092</v>
+      </c>
+      <c r="Q21">
+        <v>18.112159504445</v>
+      </c>
+      <c r="R21">
+        <v>163.009435540005</v>
+      </c>
+      <c r="S21">
+        <v>0.09916204327229672</v>
+      </c>
+      <c r="T21">
+        <v>0.09920452215251561</v>
       </c>
     </row>
   </sheetData>
